--- a/error_counts/biodivner/Meta-Llama-3.1-70B-Instruct/random_3_parsed_output/tokens_missed.xlsx
+++ b/error_counts/biodivner/Meta-Llama-3.1-70B-Instruct/random_3_parsed_output/tokens_missed.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C271"/>
+  <dimension ref="A1:C270"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -978,7 +978,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>area</t>
+          <t>ectomycorrhiza fungi saprophytes successional age</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -987,13 +987,13 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ectomycorrhiza fungi saprophytes successional age</t>
+          <t>age class</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1008,42 +1008,42 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>age class</t>
+          <t>Ecosystem</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Ecosystem</t>
+          <t>herbivore damage</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>herbivore damage</t>
+          <t>Decomposition</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -1053,12 +1053,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Decomposition</t>
+          <t>Herbivory</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -1068,12 +1068,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Herbivory</t>
+          <t>Aboveground</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -1083,7 +1083,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Aboveground</t>
+          <t>aboveground</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1092,13 +1092,13 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>aboveground</t>
+          <t>Nature Reserve</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1107,28 +1107,28 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Nature Reserve</t>
+          <t>Stem slenderness</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Stem slenderness</t>
+          <t>Stem morphology</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1137,13 +1137,13 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Stem morphology</t>
+          <t>tree diversity</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1152,13 +1152,13 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>tree diversity</t>
+          <t>Taxonomic biodiversity</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1167,13 +1167,13 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Taxonomic biodiversity</t>
+          <t>Taxon diversity</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1188,7 +1188,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Taxon diversity</t>
+          <t>Living status</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1203,7 +1203,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Living status</t>
+          <t>Dead</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1212,13 +1212,13 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Dead</t>
+          <t>alive</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1227,13 +1227,13 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>alive</t>
+          <t>Plant height</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1242,13 +1242,13 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Plant height</t>
+          <t>tree height</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1263,7 +1263,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>tree height</t>
+          <t>Plant leaf number</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1272,13 +1272,13 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Plant leaf number</t>
+          <t>Leaf number</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1293,7 +1293,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Leaf number</t>
+          <t>leaf numbers</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1308,7 +1308,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>leaf numbers</t>
+          <t>Herbivore damage</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1317,13 +1317,13 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Herbivore damage</t>
+          <t>herbivory classes</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1332,18 +1332,18 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>herbivory classes</t>
+          <t>decay</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C61" t="n">
@@ -1353,12 +1353,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>decay</t>
+          <t>woody recruits</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C62" t="n">
@@ -1368,22 +1368,22 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>woody recruits</t>
+          <t>depth</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>depth</t>
+          <t>tree species identity trait</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1392,13 +1392,13 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>tree species identity trait</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1407,13 +1407,13 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>below ground biomass</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1422,13 +1422,13 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>below ground biomass</t>
+          <t>Productivity</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1437,13 +1437,13 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Productivity</t>
+          <t>aboveground wood productivity</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1452,33 +1452,33 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>aboveground wood productivity</t>
+          <t>shrub species</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>shrub species</t>
+          <t>neighbourhood competition index</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C70" t="n">
@@ -1488,7 +1488,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>neighbourhood competition index</t>
+          <t>total basal area</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1503,27 +1503,27 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>total basal area</t>
+          <t>subtropical tree species</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>subtropical tree species</t>
+          <t>depth profile</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C73" t="n">
@@ -1533,7 +1533,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>depth profile</t>
+          <t>phospholipid fatty acid profiles</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1548,12 +1548,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>phospholipid fatty acid profiles</t>
+          <t>soil microbial community</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C75" t="n">
@@ -1563,12 +1563,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>soil microbial community</t>
+          <t>Rockmaterial</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C76" t="n">
@@ -1578,12 +1578,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Rockmaterial</t>
+          <t>Abundance/Size</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C77" t="n">
@@ -1593,12 +1593,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Abundance/Size</t>
+          <t>pollen</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C78" t="n">
@@ -1608,7 +1608,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>pollen</t>
+          <t>grains</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -1623,12 +1623,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>grains</t>
+          <t>fruit</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C80" t="n">
@@ -1638,12 +1638,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>fruit</t>
+          <t>Helper Woody debris dimensions</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C81" t="n">
@@ -1653,7 +1653,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Helper Woody debris dimensions</t>
+          <t>Woody debris dimensions</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -1662,13 +1662,13 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Woody debris dimensions</t>
+          <t>Soil fungal metagenome</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -1677,13 +1677,13 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Soil fungal metagenome</t>
+          <t>Operational taxonomic unit</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -1692,13 +1692,13 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Operational taxonomic unit</t>
+          <t>species description</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -1707,13 +1707,13 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>species description</t>
+          <t>taxonomic affiliation</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -1722,33 +1722,33 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>taxonomic affiliation</t>
+          <t>minced meat</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>minced meat</t>
+          <t>plants</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C88" t="n">
@@ -1758,12 +1758,12 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>plants</t>
+          <t>areas</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C89" t="n">
@@ -1773,22 +1773,22 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>areas</t>
+          <t>Phospholipid fatty acid profiles</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Phospholipid fatty acid profiles</t>
+          <t>dry</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -1797,13 +1797,13 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>dry</t>
+          <t>Leaf area index</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -1818,12 +1818,12 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Leaf area index</t>
+          <t>planted seedlings</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C93" t="n">
@@ -1833,12 +1833,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>planted seedlings</t>
+          <t>angular distance</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C94" t="n">
@@ -1848,72 +1848,72 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>angular distance</t>
+          <t>water</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>water</t>
+          <t>shoreline</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>shoreline</t>
+          <t>earthworm</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>earthworm</t>
+          <t>protein</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>protein</t>
+          <t>honey bee species</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C99" t="n">
@@ -1923,12 +1923,12 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>honey bee species</t>
+          <t>temperate</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C100" t="n">
@@ -1938,12 +1938,12 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>temperate</t>
+          <t>Soil</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C101" t="n">
@@ -1953,12 +1953,12 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Soil</t>
+          <t>TÃƒÂ¼bingen RÃƒÂ¼melinstr</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C102" t="n">
@@ -1968,12 +1968,12 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>TÃƒÂ¼bingen RÃƒÂ¼melinstr</t>
+          <t>marine</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C103" t="n">
@@ -1983,12 +1983,12 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>marine</t>
+          <t>WETLAND</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C104" t="n">
@@ -1998,12 +1998,12 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>WETLAND</t>
+          <t>land cover</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C105" t="n">
@@ -2013,12 +2013,12 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>land cover</t>
+          <t>land use</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C106" t="n">
@@ -2028,12 +2028,12 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>land use</t>
+          <t>sand dune</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C107" t="n">
@@ -2043,7 +2043,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>sand dune</t>
+          <t>terrestrial vegetation</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -2058,7 +2058,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>terrestrial vegetation</t>
+          <t>wildlife</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -2067,13 +2067,13 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>wildlife</t>
+          <t>Bay</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -2082,88 +2082,88 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Bay</t>
+          <t>human</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>human</t>
+          <t>Lueneburg Scharnhorststr</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Lueneburg Scharnhorststr</t>
+          <t>Organism count</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Organism count</t>
+          <t>metabolite</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>metabolite</t>
+          <t>Genus</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Genus</t>
+          <t>ground area</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -2172,18 +2172,18 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>ground area</t>
+          <t>sub-tropical forest</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C117" t="n">
@@ -2193,7 +2193,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>sub-tropical forest</t>
+          <t>Habitat</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -2208,12 +2208,12 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Habitat</t>
+          <t>carbon fluxes</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C119" t="n">
@@ -2223,12 +2223,12 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>carbon fluxes</t>
+          <t>faunal abundance</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C120" t="n">
@@ -2238,22 +2238,22 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>faunal abundance</t>
+          <t>leaf area</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>leaf area</t>
+          <t>Leaf dry matter content</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -2262,43 +2262,43 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Leaf dry matter content</t>
+          <t>N</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Nitrogen concentration</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Nitrogen concentration</t>
+          <t>Nitrogen content</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -2313,7 +2313,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Nitrogen content</t>
+          <t>concentrations</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -2328,7 +2328,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>concentrations</t>
+          <t>Carbon content</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -2343,7 +2343,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Carbon content</t>
+          <t>Carbon measurements</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -2352,13 +2352,13 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Carbon measurements</t>
+          <t>Carbon to Nitrogen Ratio</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -2367,13 +2367,13 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Carbon to Nitrogen Ratio</t>
+          <t>Kalium content</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -2388,87 +2388,87 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Kalium content</t>
+          <t>Mg</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Mg</t>
+          <t>Magnesium content</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Magnesium content</t>
+          <t>Ca</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Ca</t>
+          <t>Calcium content</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Calcium content</t>
+          <t>Al</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Al</t>
+          <t>Aluminum content</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C136" t="n">
@@ -2478,82 +2478,82 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Aluminum content</t>
+          <t>Fe</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Fe</t>
+          <t>Ferric content</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Ferric content</t>
+          <t>K2</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>K2</t>
+          <t>Potassium content</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Potassium content</t>
+          <t>Mg2</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Mg2</t>
+          <t>Mn</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -2568,87 +2568,87 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Mn</t>
+          <t>Manganese content</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Manganese content</t>
+          <t>Na</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Na</t>
+          <t>Natrium content</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Natrium content</t>
+          <t>P</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>Phosphorus content</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Phosphorus content</t>
+          <t>S</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C148" t="n">
@@ -2658,12 +2658,12 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Sulfur content</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C149" t="n">
@@ -2673,42 +2673,42 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Sulfur content</t>
+          <t>Zn</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Zn</t>
+          <t>Zinc content</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Zinc content</t>
+          <t>Co</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C152" t="n">
@@ -2718,12 +2718,12 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Co</t>
+          <t>Cobalt content</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C153" t="n">
@@ -2733,157 +2733,157 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Cobalt content</t>
+          <t>Cu</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Cu</t>
+          <t>Copper content</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Copper content</t>
+          <t>Pb</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Pb</t>
+          <t>Lead content</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Lead content</t>
+          <t>Sr</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Sr</t>
+          <t>Strontium content</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Strontium content</t>
+          <t>Cr</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Cr</t>
+          <t>Chrome content</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Chrome content</t>
+          <t>Ni</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Ni</t>
+          <t>Nickel content</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Nickel content</t>
+          <t>Cadmium content</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -2892,13 +2892,13 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Cadmium content</t>
+          <t>average Stomatal density</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -2907,13 +2907,13 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>average Stomatal density</t>
+          <t>average Stomatal length</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -2928,7 +2928,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>average Stomatal length</t>
+          <t>average Stomatal width</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -2943,22 +2943,22 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>average Stomatal width</t>
+          <t>Secondary metabolites</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Secondary metabolites</t>
+          <t>organic compounds</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -2973,12 +2973,12 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>organic compounds</t>
+          <t>position</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C170" t="n">
@@ -2988,12 +2988,12 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>position</t>
+          <t>debris object</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C171" t="n">
@@ -3003,12 +3003,12 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>debris object</t>
+          <t>western Mediterranean</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C172" t="n">
@@ -3018,12 +3018,12 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>western Mediterranean</t>
+          <t>African coast</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C173" t="n">
@@ -3033,12 +3033,12 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>African coast</t>
+          <t>human pressures</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C174" t="n">
@@ -3048,12 +3048,12 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>human pressures</t>
+          <t>tropical</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C175" t="n">
@@ -3063,12 +3063,12 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>tropical</t>
+          <t>sub-tropical forests</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C176" t="n">
@@ -3078,12 +3078,12 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>sub-tropical forests</t>
+          <t>flux</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C177" t="n">
@@ -3093,12 +3093,12 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>flux</t>
+          <t>Environmental indicators</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C178" t="n">
@@ -3108,37 +3108,37 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Environmental indicators</t>
+          <t>Land</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Land</t>
+          <t>vegetation</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>vegetation</t>
+          <t>invasion</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -3153,7 +3153,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>invasion</t>
+          <t>snow break</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -3168,12 +3168,12 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>snow break</t>
+          <t>relative position</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C183" t="n">
@@ -3183,12 +3183,12 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>relative position</t>
+          <t>snag survival</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C184" t="n">
@@ -3198,12 +3198,12 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>snag survival</t>
+          <t>forest floor</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C185" t="n">
@@ -3213,12 +3213,12 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>forest floor</t>
+          <t>alive trees</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C186" t="n">
@@ -3228,12 +3228,12 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>alive trees</t>
+          <t>coarse woody debris</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C187" t="n">
@@ -3243,12 +3243,12 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>coarse woody debris</t>
+          <t>dead wood decomposition</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C188" t="n">
@@ -3258,7 +3258,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>dead wood decomposition</t>
+          <t>ice storm</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -3273,12 +3273,12 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>ice storm</t>
+          <t>location</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C190" t="n">
@@ -3288,7 +3288,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>location</t>
+          <t>mortality</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -3303,12 +3303,12 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>mortality</t>
+          <t>North American zoo</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C192" t="n">
@@ -3318,12 +3318,12 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>North American zoo</t>
+          <t>animals</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C193" t="n">
@@ -3333,12 +3333,12 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>animals</t>
+          <t>populations</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C194" t="n">
@@ -3348,12 +3348,12 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>populations</t>
+          <t>LÃƒÂ¼neburg Germany</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C195" t="n">
@@ -3363,7 +3363,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>LÃƒÂ¼neburg Germany</t>
+          <t>Deutscher Platz 5e Leipzig Germany</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -3378,7 +3378,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Deutscher Platz 5e Leipzig Germany</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -3393,12 +3393,12 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>composition</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C198" t="n">
@@ -3408,12 +3408,12 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>composition</t>
+          <t>herbivory</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C199" t="n">
@@ -3423,12 +3423,12 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>herbivory</t>
+          <t>intraspecific trait variability</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C200" t="n">
@@ -3438,7 +3438,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>intraspecific trait variability</t>
+          <t>soil profile</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -3447,28 +3447,28 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>soil profile</t>
+          <t>Coarse woody debris</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C202" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Coarse woody debris</t>
+          <t>Rock fragments</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -3483,7 +3483,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Rock fragments</t>
+          <t>network</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -3498,37 +3498,37 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>network</t>
+          <t>Alticinae</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C205" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Alticinae</t>
+          <t>intraspecific trait variation</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C206" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>intraspecific trait variation</t>
+          <t>Soil profiles</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -3543,22 +3543,22 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Soil profiles</t>
+          <t>Country</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C208" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Country</t>
+          <t>carbon</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -3567,18 +3567,18 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>carbon</t>
+          <t>structure</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C210" t="n">
@@ -3588,7 +3588,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>structure</t>
+          <t>thickness</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -3603,42 +3603,42 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>thickness</t>
+          <t>rain events</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C212" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>rain events</t>
+          <t>Aquaculture Animals</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C213" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Aquaculture Animals</t>
+          <t>national park</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C214" t="n">
@@ -3648,12 +3648,12 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>national park</t>
+          <t>woody</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C215" t="n">
@@ -3663,12 +3663,12 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>woody</t>
+          <t>sap-sucking Hemiptera</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C216" t="n">
@@ -3678,7 +3678,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>sap-sucking Hemiptera</t>
+          <t>honeydew-collecting ants</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -3693,12 +3693,12 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>honeydew-collecting ants</t>
+          <t>total clay</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C218" t="n">
@@ -3708,42 +3708,42 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>total clay</t>
+          <t>engineering properties</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C219" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>engineering properties</t>
+          <t>fine sand</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C220" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>fine sand</t>
+          <t>Ant species name</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C221" t="n">
@@ -3753,12 +3753,12 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Ant species name</t>
+          <t>herb community</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C222" t="n">
@@ -3768,12 +3768,12 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>herb community</t>
+          <t>oil palm</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C223" t="n">
@@ -3783,12 +3783,12 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>oil palm</t>
+          <t>distance effect</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C224" t="n">
@@ -3798,7 +3798,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>distance effect</t>
+          <t>density effects</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -3813,12 +3813,12 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>density effects</t>
+          <t>Seedling</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C226" t="n">
@@ -3828,12 +3828,12 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Seedling</t>
+          <t>garden</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C227" t="n">
@@ -3843,12 +3843,12 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>garden</t>
+          <t>treatment</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C228" t="n">
@@ -3858,12 +3858,12 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>treatment</t>
+          <t>light conditions</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C229" t="n">
@@ -3873,7 +3873,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>light conditions</t>
+          <t>erosivity</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -3888,12 +3888,12 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>erosivity</t>
+          <t>humid subtropics</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C231" t="n">
@@ -3903,12 +3903,12 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>humid subtropics</t>
+          <t>southeast China</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C232" t="n">
@@ -3918,12 +3918,12 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>southeast China</t>
+          <t>climate</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C233" t="n">
@@ -3933,22 +3933,22 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>climate</t>
+          <t>tree mass</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C234" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>tree mass</t>
+          <t>tree competition index</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -3957,48 +3957,48 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>tree competition index</t>
+          <t>acid</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C236" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>acid</t>
+          <t>young</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C237" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>young</t>
+          <t>conifer plantations</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C238" t="n">
@@ -4008,12 +4008,12 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>conifer plantations</t>
+          <t>chemical carbon-based leaf defence traits</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C239" t="n">
@@ -4023,7 +4023,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>chemical carbon-based leaf defence traits</t>
+          <t>Scientific plant species name</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -4038,42 +4038,42 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Scientific plant species name</t>
+          <t>Fish</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C241" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Fish</t>
+          <t>nature</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C242" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>nature</t>
+          <t>canopy height</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C243" t="n">
@@ -4083,7 +4083,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>canopy height</t>
+          <t>chemical defence trait</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -4098,7 +4098,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>chemical defence trait</t>
+          <t>Species name</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -4113,22 +4113,22 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Species name</t>
+          <t>Animal Species</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C246" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Animal Species</t>
+          <t>Herbivore</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -4137,18 +4137,18 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Herbivore</t>
+          <t>Capacity</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C248" t="n">
@@ -4158,12 +4158,12 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Capacity</t>
+          <t>Herbivores</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C249" t="n">
@@ -4173,12 +4173,12 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Herbivores</t>
+          <t>Rainfall</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C250" t="n">
@@ -4188,12 +4188,12 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Rainfall</t>
+          <t>raindrops</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C251" t="n">
@@ -4203,42 +4203,42 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>raindrops</t>
+          <t>Woody</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C252" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Woody</t>
+          <t>Island</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C253" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Island</t>
+          <t>landscape scales</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C254" t="n">
@@ -4248,12 +4248,12 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>landscape scales</t>
+          <t>plant communities</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C255" t="n">
@@ -4263,7 +4263,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>plant communities</t>
+          <t>Park</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
@@ -4278,27 +4278,27 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Park</t>
+          <t>mutualistic antÃ¢â‚¬â€œhemipteran interactions</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C257" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>mutualistic antÃ¢â‚¬â€œhemipteran interactions</t>
+          <t>leaf chewer herbivory</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C258" t="n">
@@ -4308,27 +4308,27 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>leaf chewer herbivory</t>
+          <t>shrub position</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C259" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>shrub position</t>
+          <t>vegetation layer</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C260" t="n">
@@ -4338,12 +4338,12 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>vegetation layer</t>
+          <t>stratum</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C261" t="n">
@@ -4353,12 +4353,12 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>stratum</t>
+          <t>thick layers</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C262" t="n">
@@ -4368,12 +4368,12 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>thick layers</t>
+          <t>above ground</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C263" t="n">
@@ -4383,12 +4383,12 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>above ground</t>
+          <t>toxicity</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C264" t="n">
@@ -4398,12 +4398,12 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>toxicity</t>
+          <t>drought-sensitive species</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C265" t="n">
@@ -4413,12 +4413,12 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>drought-sensitive species</t>
+          <t>Leipzig Deutscher Platz 5e Leipzig Germany</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C266" t="n">
@@ -4428,12 +4428,12 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Leipzig Deutscher Platz 5e Leipzig Germany</t>
+          <t>rogenhoferi</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C267" t="n">
@@ -4443,12 +4443,12 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>rogenhoferi</t>
+          <t>Microbial biomass</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C268" t="n">
@@ -4458,12 +4458,12 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Microbial biomass</t>
+          <t>mineral soil layers</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C269" t="n">
@@ -4473,7 +4473,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>mineral soil layers</t>
+          <t>organic soil layers</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
@@ -4482,21 +4482,6 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" t="inlineStr">
-        <is>
-          <t>organic soil layers</t>
-        </is>
-      </c>
-      <c r="B271" t="inlineStr">
-        <is>
-          <t>ENVIRONMENT</t>
-        </is>
-      </c>
-      <c r="C271" t="n">
         <v>1</v>
       </c>
     </row>
